--- a/assets/metadata/latest/PancDB_RNA-seq_metadata_2023-12-13.xlsx
+++ b/assets/metadata/latest/PancDB_RNA-seq_metadata_2023-12-13.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elisabetta\Documents\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_946AF5D9AF1D843BF3FF74A3FDB2CDACF7FC19F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6907F229-E1C0-4890-AA55-847F69CB5056}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31140" windowHeight="17400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31140" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PancDB_RNA-seq_metadata_Oct2022" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -72,6 +89,12 @@
     <t>alpha</t>
   </si>
   <si>
+    <t>riboZero+truSeqStranded</t>
+  </si>
+  <si>
+    <t>FGC1612;FGC1639</t>
+  </si>
+  <si>
     <t>single-ended;single-ended</t>
   </si>
   <si>
@@ -117,9 +140,6 @@
     <t>HPAP-003</t>
   </si>
   <si>
-    <t>riboZero+truSeqStranded</t>
-  </si>
-  <si>
     <t>FGC1721;FGC1736</t>
   </si>
   <si>
@@ -612,168 +632,180 @@
     <t>HPAP-103_exocrine_107424_FGC2365_s_1_CCTTCCAT.fastq.gz;HPAP-103_exocrine_107424_FGC2365_s_2_CCTTCCAT.fastq.gz;HPAP-103_exocrine_107424_FGC2386_s_1_CCTTCCAT.fastq.gz;HPAP-103_exocrine_107424_FGC2386_s_2_CCTTCCAT.fastq.gz</t>
   </si>
   <si>
-    <t>FGC1612;FGC1639</t>
+    <t>HPAP-001_beta_53632_FGC1612_s_3_ACTTGA.fastq.gz;HPAP-001_beta_53632_FGC1639_s_3_ACTTGA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-001_beta_55897_FGC1612_s_3_AATCCAGC.fastq.gz;HPAP-001_beta_55897_FGC1639_s_3_AATCCAGC.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-002_alpha_65844_FGC1721_s_4_ATCACG.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-003_beta_65847_FGC1721_s_4_GATCAG.fastq.gz;HPAP-003_beta_65847_FGC1736_s_5_GATCAG.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-004_beta_65849_FGC1721_s_4_GGCTAC.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-005_beta_65851_FGC1721_s_4_GTTTCG.fastq.gz;HPAP-005_beta_65851_FGC1736_s_5_GTTTCG.fastq.gz</t>
+  </si>
+  <si>
+    <t>FGC1721;FGC1752;FGC1736</t>
+  </si>
+  <si>
+    <t>HPAP-006_beta_65853_FGC1721_s_4_GAGTGG.fastq.gz;HPAP-006_beta_65853_FGC1752_s_4_GAGTGG.fastq.gz;HPAP-006_beta_65853_FGC1736_s_5_GAGTGG.fastq.gz</t>
+  </si>
+  <si>
+    <t>FGC1721;FGC1752;FGC1761;FGC1736</t>
+  </si>
+  <si>
+    <t>HPAP-007_beta_65855_FGC1721_s_4_ATTCCT.fastq.gz;HPAP-007_beta_65855_FGC1752_s_4_ATTCCT.fastq.gz;HPAP-007_beta_65855_FGC1761_s_5_ATTCCT.fastq.gz;HPAP-007_beta_65855_FGC1736_s_5_ATTCCT.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-007_exocrine_107463_FGC2365_s_1_GTCCTAAG.fastq.gz;HPAP-007_exocrine_107463_FGC2365_s_2_GTCCTAAG.fastq.gz;HPAP-007_exocrine_107463_FGC2386_s_1_GTCCTAAG.fastq.gz;HPAP-007_exocrine_107463_FGC2386_s_2_GTCCTAAG.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-008_beta_65857_FGC1721_s_4_TGACCA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-009_beta_65859_FGC1721_s_4_GCCAAT.fastq.gz;HPAP-009_beta_65859_FGC1736_s_5_GCCAAT.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-010_beta_65861_FGC1721_s_4_CTTGTA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-011_alpha_66892_FGC1752_s_8_CGATGT.fastq.gz;HPAP-011_alpha_66892_FGC1761_s_5_CGATGT.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-011_beta_66893_FGC1752_s_8_TGACCA.fastq.gz;HPAP-011_beta_66893_FGC1761_s_5_TGACCA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-012_exocrine_66895_FGC1752_s_8_GCCAAT.fastq.gz;HPAP-012_exocrine_66895_FGC1761_s_5_GCCAAT.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-012_beta_107467_FGC2365_s_1_GCCTTAAC.fastq.gz;HPAP-012_beta_107467_FGC2365_s_2_GCCTTAAC.fastq.gz;HPAP-012_beta_107467_FGC2386_s_1_GCCTTAAC.fastq.gz;HPAP-012_beta_107467_FGC2386_s_2_GCCTTAAC.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-013_beta_66897_FGC1752_s_8_CTTGTA.fastq.gz;HPAP-013_beta_66897_FGC1761_s_5_CTTGTA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-013_exocrine_107468_FGC2365_s_1_GTAAGGTG.fastq.gz;HPAP-013_exocrine_107468_FGC2365_s_2_GTAAGGTG.fastq.gz;HPAP-013_exocrine_107468_FGC2386_s_1_GTAAGGTG.fastq.gz;HPAP-013_exocrine_107468_FGC2386_s_2_GTAAGGTG.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-014_beta_66899_FGC1752_s_8_AGTTCC.fastq.gz;HPAP-014_beta_66899_FGC1761_s_5_AGTTCC.fastq.gz</t>
   </si>
   <si>
     <t>HPAP-015</t>
   </si>
   <si>
+    <t>HPAP-015_alpha_98576_FGC2144_s_1_AGCGATAG-TATAGCCT.fastq.gz;HPAP-015_alpha_98576_FGC2155_s_2_AGCGATAG-TATAGCCT.fastq.gz;HPAP-015_alpha_98576_FGC2155_s_1_AGCGATAG-TATAGCCT.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-015_beta_98577_FGC2144_s_1_ATTACTCG-ATAGAGGC.fastq.gz;HPAP-015_beta_98577_FGC2155_s_2_ATTACTCG-ATAGAGGC.fastq.gz;HPAP-015_beta_98577_FGC2155_s_1_ATTACTCG-ATAGAGGC.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-017_beta_66901_FGC1752_s_8_CCGTCC.fastq.gz;HPAP-017_beta_66901_FGC1761_s_5_CCGTCC.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-026_beta_82401_FGC2009_s_1_ATTCAGAA-GGCTCTGA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-026_exocrine_107472_FGC2365_s_1_GATAGCCA.fastq.gz;HPAP-026_exocrine_107472_FGC2365_s_2_GATAGCCA.fastq.gz;HPAP-026_exocrine_107472_FGC2386_s_1_GATAGCCA.fastq.gz;HPAP-026_exocrine_107472_FGC2386_s_2_GATAGCCA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-036_alpha_98584_FGC2144_s_1_TCCGGAGA-CCTATCCT.fastq.gz;HPAP-036_alpha_98584_FGC2155_s_2_TCCGGAGA-CCTATCCT.fastq.gz;HPAP-036_alpha_98584_FGC2155_s_1_TCCGGAGA-CCTATCCT.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-036_exocrine_107474_FGC2365_s_1_GGAAGAGA.fastq.gz;HPAP-036_exocrine_107474_FGC2365_s_2_GGAAGAGA.fastq.gz;HPAP-036_exocrine_107474_FGC2386_s_1_GGAAGAGA.fastq.gz;HPAP-036_exocrine_107474_FGC2386_s_2_GGAAGAGA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-047_alpha_98592_FGC2144_s_1_TAATGCGC-CCTATCCT.fastq.gz;HPAP-047_alpha_98592_FGC2155_s_2_TAATGCGC-CCTATCCT.fastq.gz;HPAP-047_alpha_98592_FGC2155_s_1_TAATGCGC-CCTATCCT.fastq.gz</t>
+  </si>
+  <si>
+    <t>FGC2144;FGC2142;FGC2142;FGC2155;FGC2155</t>
+  </si>
+  <si>
+    <t>HPAP-047_beta_98593_FGC2144_s_1_CGGCTATG-CCTATCCT.fastq.gz;HPAP-047_beta_98593_FGC2142_s_1_CGGCTATG-CCTATCCT.fastq.gz;HPAP-047_beta_98593_FGC2142_s_2_CGGCTATG-CCTATCCT.fastq.gz;HPAP-047_beta_98593_FGC2155_s_2_CGGCTATG-CCTATCCT.fastq.gz;HPAP-047_beta_98593_FGC2155_s_1_CGGCTATG-CCTATCCT.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-049_beta_98595_FGC2144_s_1_TCTCGCGC-CCTATCCT.fastq.gz;HPAP-049_beta_98595_FGC2142_s_1_TCTCGCGC-CCTATCCT.fastq.gz;HPAP-049_beta_98595_FGC2142_s_2_TCTCGCGC-CCTATCCT.fastq.gz;HPAP-049_beta_98595_FGC2155_s_2_TCTCGCGC-CCTATCCT.fastq.gz;HPAP-049_beta_98595_FGC2155_s_1_TCTCGCGC-CCTATCCT.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-051_beta_98597_FGC2144_s_1_GAGATTCC-GGCTCTGA.fastq.gz;HPAP-051_beta_98597_FGC2142_s_1_GAGATTCC-GGCTCTGA.fastq.gz;HPAP-051_beta_98597_FGC2142_s_2_GAGATTCC-GGCTCTGA.fastq.gz;HPAP-051_beta_98597_FGC2155_s_2_GAGATTCC-GGCTCTGA.fastq.gz;HPAP-051_beta_98597_FGC2155_s_1_GAGATTCC-GGCTCTGA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-052_beta_98599_FGC2144_s_1_GAATTCGT-TATAGCCT.fastq.gz;HPAP-052_beta_98599_FGC2155_s_2_GAATTCGT-TATAGCCT.fastq.gz;HPAP-052_beta_98599_FGC2155_s_1_GAATTCGT-TATAGCCT.fastq.gz</t>
+  </si>
+  <si>
     <t>HPAP-055</t>
   </si>
   <si>
+    <t>HPAP-055_alpha_98604_FGC2144_s_1_TCTCGCGC-TATAGCCT.fastq.gz;HPAP-055_alpha_98604_FGC2155_s_2_TCTCGCGC-TATAGCCT.fastq.gz;HPAP-055_alpha_98604_FGC2155_s_1_TCTCGCGC-TATAGCCT.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-056_beta_98606_FGC2144_s_1_ATTCAGAA-ATAGAGGC.fastq.gz;HPAP-056_beta_98606_FGC2155_s_2_ATTCAGAA-ATAGAGGC.fastq.gz;HPAP-056_beta_98606_FGC2155_s_1_ATTCAGAA-ATAGAGGC.fastq.gz</t>
+  </si>
+  <si>
     <t>HPAP-058</t>
   </si>
   <si>
+    <t>HPAP-058_alpha_98609_FGC2144_s_1_TAATGCGC-ATAGAGGC.fastq.gz;HPAP-058_alpha_98609_FGC2155_s_2_TAATGCGC-ATAGAGGC.fastq.gz;HPAP-058_alpha_98609_FGC2155_s_1_TAATGCGC-ATAGAGGC.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-058_beta_98610_FGC2144_s_1_CGGCTATG-ATAGAGGC.fastq.gz;HPAP-058_beta_98610_FGC2155_s_2_CGGCTATG-ATAGAGGC.fastq.gz;HPAP-058_beta_98610_FGC2155_s_1_CGGCTATG-ATAGAGGC.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-059_alpha_107425_FGC2365_s_1_TACGGTCT.fastq.gz;HPAP-059_alpha_107425_FGC2365_s_2_TACGGTCT.fastq.gz;HPAP-059_alpha_107425_FGC2386_s_1_TACGGTCT.fastq.gz;HPAP-059_alpha_107425_FGC2386_s_2_TACGGTCT.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-066_alpha_107426_FGC2365_s_1_CCAGTATC.fastq.gz;HPAP-066_alpha_107426_FGC2365_s_2_CCAGTATC.fastq.gz;HPAP-066_alpha_107426_FGC2386_s_1_CCAGTATC.fastq.gz;HPAP-066_alpha_107426_FGC2386_s_2_CCAGTATC.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-067_beta_107445_FGC2365_s_1_CTCGAACA.fastq.gz;HPAP-067_beta_107445_FGC2365_s_2_CTCGAACA.fastq.gz;HPAP-067_beta_107445_FGC2386_s_1_CTCGAACA.fastq.gz;HPAP-067_beta_107445_FGC2386_s_2_CTCGAACA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-072_alpha_107429_FGC2365_s_1_GACGTCAT.fastq.gz;HPAP-072_alpha_107429_FGC2365_s_2_GACGTCAT.fastq.gz;HPAP-072_alpha_107429_FGC2386_s_1_GACGTCAT.fastq.gz;HPAP-072_alpha_107429_FGC2386_s_2_GACGTCAT.fastq.gz</t>
+  </si>
+  <si>
     <t>HPAP-074</t>
   </si>
   <si>
+    <t>HPAP-074_beta_107446_FGC2365_s_1_CAACTCCA.fastq.gz;HPAP-074_beta_107446_FGC2365_s_2_CAACTCCA.fastq.gz;HPAP-074_beta_107446_FGC2386_s_1_CAACTCCA.fastq.gz;HPAP-074_beta_107446_FGC2386_s_2_CAACTCCA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-077_beta_107447_FGC2365_s_1_GTCATCGT.fastq.gz;HPAP-077_beta_107447_FGC2365_s_2_GTCATCGT.fastq.gz;HPAP-077_beta_107447_FGC2386_s_1_GTCATCGT.fastq.gz;HPAP-077_beta_107447_FGC2386_s_2_GTCATCGT.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-079_beta_107448_FGC2365_s_1_GGACATCA.fastq.gz;HPAP-079_beta_107448_FGC2365_s_2_GGACATCA.fastq.gz;HPAP-079_beta_107448_FGC2386_s_1_GGACATCA.fastq.gz;HPAP-079_beta_107448_FGC2386_s_2_GGACATCA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-080_beta_107449_FGC2365_s_1_CAGGTTCA.fastq.gz;HPAP-080_beta_107449_FGC2365_s_2_CAGGTTCA.fastq.gz;HPAP-080_beta_107449_FGC2386_s_1_CAGGTTCA.fastq.gz;HPAP-080_beta_107449_FGC2386_s_2_CAGGTTCA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-090_beta_107450_FGC2365_s_1_GAACGAAG.fastq.gz;HPAP-090_beta_107450_FGC2365_s_2_GAACGAAG.fastq.gz;HPAP-090_beta_107450_FGC2386_s_1_GAACGAAG.fastq.gz;HPAP-090_beta_107450_FGC2386_s_2_GAACGAAG.fastq.gz</t>
+  </si>
+  <si>
     <t>HPAP-091</t>
   </si>
   <si>
+    <t>HPAP-091_alpha_107451_FGC2365_s_1_CTCAGAAG.fastq.gz;HPAP-091_alpha_107451_FGC2365_s_2_CTCAGAAG.fastq.gz;HPAP-091_alpha_107451_FGC2386_s_1_CTCAGAAG.fastq.gz;HPAP-091_alpha_107451_FGC2386_s_2_CTCAGAAG.fastq.gz</t>
+  </si>
+  <si>
     <t>HPAP-092</t>
   </si>
   <si>
+    <t>HPAP-092_alpha_107436_FGC2365_s_1_TGGTGAAG.fastq.gz;HPAP-092_alpha_107436_FGC2365_s_2_TGGTGAAG.fastq.gz;HPAP-092_alpha_107436_FGC2386_s_1_TGGTGAAG.fastq.gz;HPAP-092_alpha_107436_FGC2386_s_2_TGGTGAAG.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-092_beta_107452_FGC2365_s_1_CATGAGCA.fastq.gz;HPAP-092_beta_107452_FGC2365_s_2_CATGAGCA.fastq.gz;HPAP-092_beta_107452_FGC2386_s_1_CATGAGCA.fastq.gz;HPAP-092_beta_107452_FGC2386_s_2_CATGAGCA.fastq.gz</t>
+  </si>
+  <si>
+    <t>HPAP-092_exocrine_107418_FGC2365_s_1_GTACACCT.fastq.gz;HPAP-092_exocrine_107418_FGC2365_s_2_GTACACCT.fastq.gz;HPAP-092_exocrine_107418_FGC2386_s_1_GTACACCT.fastq.gz;HPAP-092_exocrine_107418_FGC2386_s_2_GTACACCT.fastq.gz</t>
+  </si>
+  <si>
     <t>HPAP-093</t>
   </si>
   <si>
-    <t>HPAP-002_alpha_65844_FGC1721_s_4_ATCACG.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-003_beta_65847_FGC1721_s_4_GATCAG.fastq.gz;HPAP-003_beta_65847_FGC1736_s_5_GATCAG.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-004_beta_65849_FGC1721_s_4_GGCTAC.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-005_beta_65851_FGC1721_s_4_GTTTCG.fastq.gz;HPAP-005_beta_65851_FGC1736_s_5_GTTTCG.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-006_beta_65853_FGC1721_s_4_GAGTGG.fastq.gz;HPAP-006_beta_65853_FGC1752_s_4_GAGTGG.fastq.gz;HPAP-006_beta_65853_FGC1736_s_5_GAGTGG.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-007_beta_65855_FGC1721_s_4_ATTCCT.fastq.gz;HPAP-007_beta_65855_FGC1752_s_4_ATTCCT.fastq.gz;HPAP-007_beta_65855_FGC1761_s_5_ATTCCT.fastq.gz;HPAP-007_beta_65855_FGC1736_s_5_ATTCCT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-007_exocrine_107463_FGC2365_s_1_GTCCTAAG.fastq.gz;HPAP-007_exocrine_107463_FGC2365_s_2_GTCCTAAG.fastq.gz;HPAP-007_exocrine_107463_FGC2386_s_1_GTCCTAAG.fastq.gz;HPAP-007_exocrine_107463_FGC2386_s_2_GTCCTAAG.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-008_beta_65857_FGC1721_s_4_TGACCA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-009_beta_65859_FGC1721_s_4_GCCAAT.fastq.gz;HPAP-009_beta_65859_FGC1736_s_5_GCCAAT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-010_beta_65861_FGC1721_s_4_CTTGTA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-011_alpha_66892_FGC1752_s_8_CGATGT.fastq.gz;HPAP-011_alpha_66892_FGC1761_s_5_CGATGT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-011_beta_66893_FGC1752_s_8_TGACCA.fastq.gz;HPAP-011_beta_66893_FGC1761_s_5_TGACCA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-012_beta_66895_FGC1752_s_8_GCCAAT.fastq.gz;HPAP-012_beta_66895_FGC1761_s_5_GCCAAT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-012_exocrine_107467_FGC2365_s_1_GCCTTAAC.fastq.gz;HPAP-012_exocrine_107467_FGC2365_s_2_GCCTTAAC.fastq.gz;HPAP-012_exocrine_107467_FGC2386_s_1_GCCTTAAC.fastq.gz;HPAP-012_exocrine_107467_FGC2386_s_2_GCCTTAAC.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-013_beta_66897_FGC1752_s_8_CTTGTA.fastq.gz;HPAP-013_beta_66897_FGC1761_s_5_CTTGTA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-013_exocrine_107468_FGC2365_s_1_GTAAGGTG.fastq.gz;HPAP-013_exocrine_107468_FGC2365_s_2_GTAAGGTG.fastq.gz;HPAP-013_exocrine_107468_FGC2386_s_1_GTAAGGTG.fastq.gz;HPAP-013_exocrine_107468_FGC2386_s_2_GTAAGGTG.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-014_beta_66899_FGC1752_s_8_AGTTCC.fastq.gz;HPAP-014_beta_66899_FGC1761_s_5_AGTTCC.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-015_alpha_98576_FGC2144_s_1_AGCGATAG-TATAGCCT.fastq.gz;HPAP-015_alpha_98576_FGC2155_s_2_AGCGATAG-TATAGCCT.fastq.gz;HPAP-015_alpha_98576_FGC2155_s_1_AGCGATAG-TATAGCCT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-015_beta_98577_FGC2144_s_1_ATTACTCG-ATAGAGGC.fastq.gz;HPAP-015_beta_98577_FGC2155_s_2_ATTACTCG-ATAGAGGC.fastq.gz;HPAP-015_beta_98577_FGC2155_s_1_ATTACTCG-ATAGAGGC.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-017_beta_66901_FGC1752_s_8_CCGTCC.fastq.gz;HPAP-017_beta_66901_FGC1761_s_5_CCGTCC.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-026_beta_82401_FGC2009_s_1_ATTCAGAA-GGCTCTGA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-026_exocrine_107472_FGC2365_s_1_GATAGCCA.fastq.gz;HPAP-026_exocrine_107472_FGC2365_s_2_GATAGCCA.fastq.gz;HPAP-026_exocrine_107472_FGC2386_s_1_GATAGCCA.fastq.gz;HPAP-026_exocrine_107472_FGC2386_s_2_GATAGCCA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-036_alpha_98584_FGC2144_s_1_TCCGGAGA-CCTATCCT.fastq.gz;HPAP-036_alpha_98584_FGC2155_s_2_TCCGGAGA-CCTATCCT.fastq.gz;HPAP-036_alpha_98584_FGC2155_s_1_TCCGGAGA-CCTATCCT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-036_exocrine_107474_FGC2365_s_1_GGAAGAGA.fastq.gz;HPAP-036_exocrine_107474_FGC2365_s_2_GGAAGAGA.fastq.gz;HPAP-036_exocrine_107474_FGC2386_s_1_GGAAGAGA.fastq.gz;HPAP-036_exocrine_107474_FGC2386_s_2_GGAAGAGA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-047_alpha_98592_FGC2144_s_1_TAATGCGC-CCTATCCT.fastq.gz;HPAP-047_alpha_98592_FGC2155_s_2_TAATGCGC-CCTATCCT.fastq.gz;HPAP-047_alpha_98592_FGC2155_s_1_TAATGCGC-CCTATCCT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-047_beta_98593_FGC2144_s_1_CGGCTATG-CCTATCCT.fastq.gz;HPAP-047_beta_98593_FGC2142_s_1_CGGCTATG-CCTATCCT.fastq.gz;HPAP-047_beta_98593_FGC2142_s_2_CGGCTATG-CCTATCCT.fastq.gz;HPAP-047_beta_98593_FGC2155_s_2_CGGCTATG-CCTATCCT.fastq.gz;HPAP-047_beta_98593_FGC2155_s_1_CGGCTATG-CCTATCCT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-049_beta_98595_FGC2144_s_1_TCTCGCGC-CCTATCCT.fastq.gz;HPAP-049_beta_98595_FGC2142_s_1_TCTCGCGC-CCTATCCT.fastq.gz;HPAP-049_beta_98595_FGC2142_s_2_TCTCGCGC-CCTATCCT.fastq.gz;HPAP-049_beta_98595_FGC2155_s_2_TCTCGCGC-CCTATCCT.fastq.gz;HPAP-049_beta_98595_FGC2155_s_1_TCTCGCGC-CCTATCCT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-051_beta_98597_FGC2144_s_1_GAGATTCC-GGCTCTGA.fastq.gz;HPAP-051_beta_98597_FGC2142_s_1_GAGATTCC-GGCTCTGA.fastq.gz;HPAP-051_beta_98597_FGC2142_s_2_GAGATTCC-GGCTCTGA.fastq.gz;HPAP-051_beta_98597_FGC2155_s_2_GAGATTCC-GGCTCTGA.fastq.gz;HPAP-051_beta_98597_FGC2155_s_1_GAGATTCC-GGCTCTGA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-052_beta_98599_FGC2144_s_1_GAATTCGT-TATAGCCT.fastq.gz;HPAP-052_beta_98599_FGC2155_s_2_GAATTCGT-TATAGCCT.fastq.gz;HPAP-052_beta_98599_FGC2155_s_1_GAATTCGT-TATAGCCT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-055_alpha_98604_FGC2144_s_1_TCTCGCGC-TATAGCCT.fastq.gz;HPAP-055_alpha_98604_FGC2155_s_2_TCTCGCGC-TATAGCCT.fastq.gz;HPAP-055_alpha_98604_FGC2155_s_1_TCTCGCGC-TATAGCCT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-056_beta_98606_FGC2144_s_1_ATTCAGAA-ATAGAGGC.fastq.gz;HPAP-056_beta_98606_FGC2155_s_2_ATTCAGAA-ATAGAGGC.fastq.gz;HPAP-056_beta_98606_FGC2155_s_1_ATTCAGAA-ATAGAGGC.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-058_alpha_98609_FGC2144_s_1_TAATGCGC-ATAGAGGC.fastq.gz;HPAP-058_alpha_98609_FGC2155_s_2_TAATGCGC-ATAGAGGC.fastq.gz;HPAP-058_alpha_98609_FGC2155_s_1_TAATGCGC-ATAGAGGC.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-058_beta_98610_FGC2144_s_1_CGGCTATG-ATAGAGGC.fastq.gz;HPAP-058_beta_98610_FGC2155_s_2_CGGCTATG-ATAGAGGC.fastq.gz;HPAP-058_beta_98610_FGC2155_s_1_CGGCTATG-ATAGAGGC.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-059_alpha_107425_FGC2365_s_1_TACGGTCT.fastq.gz;HPAP-059_alpha_107425_FGC2365_s_2_TACGGTCT.fastq.gz;HPAP-059_alpha_107425_FGC2386_s_1_TACGGTCT.fastq.gz;HPAP-059_alpha_107425_FGC2386_s_2_TACGGTCT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-066_alpha_107426_FGC2365_s_1_CCAGTATC.fastq.gz;HPAP-066_alpha_107426_FGC2365_s_2_CCAGTATC.fastq.gz;HPAP-066_alpha_107426_FGC2386_s_1_CCAGTATC.fastq.gz;HPAP-066_alpha_107426_FGC2386_s_2_CCAGTATC.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-067_beta_107445_FGC2365_s_1_CTCGAACA.fastq.gz;HPAP-067_beta_107445_FGC2365_s_2_CTCGAACA.fastq.gz;HPAP-067_beta_107445_FGC2386_s_1_CTCGAACA.fastq.gz;HPAP-067_beta_107445_FGC2386_s_2_CTCGAACA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-072_alpha_107429_FGC2365_s_1_GACGTCAT.fastq.gz;HPAP-072_alpha_107429_FGC2365_s_2_GACGTCAT.fastq.gz;HPAP-072_alpha_107429_FGC2386_s_1_GACGTCAT.fastq.gz;HPAP-072_alpha_107429_FGC2386_s_2_GACGTCAT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-074_beta_107446_FGC2365_s_1_CAACTCCA.fastq.gz;HPAP-074_beta_107446_FGC2365_s_2_CAACTCCA.fastq.gz;HPAP-074_beta_107446_FGC2386_s_1_CAACTCCA.fastq.gz;HPAP-074_beta_107446_FGC2386_s_2_CAACTCCA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-077_beta_107447_FGC2365_s_1_GTCATCGT.fastq.gz;HPAP-077_beta_107447_FGC2365_s_2_GTCATCGT.fastq.gz;HPAP-077_beta_107447_FGC2386_s_1_GTCATCGT.fastq.gz;HPAP-077_beta_107447_FGC2386_s_2_GTCATCGT.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-079_beta_107448_FGC2365_s_1_GGACATCA.fastq.gz;HPAP-079_beta_107448_FGC2365_s_2_GGACATCA.fastq.gz;HPAP-079_beta_107448_FGC2386_s_1_GGACATCA.fastq.gz;HPAP-079_beta_107448_FGC2386_s_2_GGACATCA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-080_beta_107449_FGC2365_s_1_CAGGTTCA.fastq.gz;HPAP-080_beta_107449_FGC2365_s_2_CAGGTTCA.fastq.gz;HPAP-080_beta_107449_FGC2386_s_1_CAGGTTCA.fastq.gz;HPAP-080_beta_107449_FGC2386_s_2_CAGGTTCA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-090_beta_107450_FGC2365_s_1_GAACGAAG.fastq.gz;HPAP-090_beta_107450_FGC2365_s_2_GAACGAAG.fastq.gz;HPAP-090_beta_107450_FGC2386_s_1_GAACGAAG.fastq.gz;HPAP-090_beta_107450_FGC2386_s_2_GAACGAAG.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-091_alpha_107451_FGC2365_s_1_CTCAGAAG.fastq.gz;HPAP-091_alpha_107451_FGC2365_s_2_CTCAGAAG.fastq.gz;HPAP-091_alpha_107451_FGC2386_s_1_CTCAGAAG.fastq.gz;HPAP-091_alpha_107451_FGC2386_s_2_CTCAGAAG.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-092_alpha_107436_FGC2365_s_1_TGGTGAAG.fastq.gz;HPAP-092_alpha_107436_FGC2365_s_2_TGGTGAAG.fastq.gz;HPAP-092_alpha_107436_FGC2386_s_1_TGGTGAAG.fastq.gz;HPAP-092_alpha_107436_FGC2386_s_2_TGGTGAAG.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-092_beta_107452_FGC2365_s_1_CATGAGCA.fastq.gz;HPAP-092_beta_107452_FGC2365_s_2_CATGAGCA.fastq.gz;HPAP-092_beta_107452_FGC2386_s_1_CATGAGCA.fastq.gz;HPAP-092_beta_107452_FGC2386_s_2_CATGAGCA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-092_exocrine_107418_FGC2365_s_1_GTACACCT.fastq.gz;HPAP-092_exocrine_107418_FGC2365_s_2_GTACACCT.fastq.gz;HPAP-092_exocrine_107418_FGC2386_s_1_GTACACCT.fastq.gz;HPAP-092_exocrine_107418_FGC2386_s_2_GTACACCT.fastq.gz</t>
-  </si>
-  <si>
     <t>HPAP-093_alpha_107437_FGC2365_s_1_AAGACCGT.fastq.gz;HPAP-093_alpha_107437_FGC2365_s_2_AAGACCGT.fastq.gz;HPAP-093_alpha_107437_FGC2386_s_1_AAGACCGT.fastq.gz;HPAP-093_alpha_107437_FGC2386_s_2_AAGACCGT.fastq.gz</t>
   </si>
   <si>
@@ -790,28 +822,13 @@
   </si>
   <si>
     <t>HPAP-101_beta_107456_FGC2365_s_1_GAATCACC.fastq.gz;HPAP-101_beta_107456_FGC2365_s_2_GAATCACC.fastq.gz;HPAP-101_beta_107456_FGC2386_s_1_GAATCACC.fastq.gz;HPAP-101_beta_107456_FGC2386_s_2_GAATCACC.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-001_beta_53632_FGC1612_s_3_ACTTGA.fastq.gz;HPAP-001_beta_53632_FGC1639_s_3_ACTTGA.fastq.gz</t>
-  </si>
-  <si>
-    <t>HPAP-001_beta_55897_FGC1612_s_3_AATCCAGC.fastq.gz;HPAP-001_beta_55897_FGC1639_s_3_AATCCAGC.fastq.gz</t>
-  </si>
-  <si>
-    <t>FGC1721;FGC1752;FGC1736</t>
-  </si>
-  <si>
-    <t>FGC1721;FGC1752;FGC1761;FGC1736</t>
-  </si>
-  <si>
-    <t>FGC2144;FGC2142;FGC2142;FGC2155;FGC2155</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1619,16 +1636,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="K82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M108" sqref="M108"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -1644,7 +1661,7 @@
     <col min="13" max="13" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1705,28 +1722,28 @@
         <v>919</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1737,7 +1754,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
         <v>107457</v>
@@ -1746,39 +1763,39 @@
         <v>185</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>107458</v>
@@ -1787,30 +1804,30 @@
         <v>185</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1828,31 +1845,31 @@
         <v>185</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1860,7 +1877,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>107459</v>
@@ -1869,30 +1886,30 @@
         <v>185</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -1910,16 +1927,16 @@
         <v>185</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7" s="2">
         <v>101</v>
@@ -1928,12 +1945,12 @@
         <v>100</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -1942,7 +1959,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>107460</v>
@@ -1951,39 +1968,39 @@
         <v>185</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>107461</v>
@@ -1992,30 +2009,30 @@
         <v>185</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -2033,31 +2050,31 @@
         <v>185</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1">
+      <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2065,7 +2082,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2">
         <v>107462</v>
@@ -2074,30 +2091,30 @@
         <v>185</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
@@ -2115,30 +2132,30 @@
         <v>185</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -2156,16 +2173,16 @@
         <v>185</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13" s="2">
         <v>101</v>
@@ -2174,12 +2191,12 @@
         <v>100</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -2197,31 +2214,31 @@
         <v>185</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2229,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
         <v>107464</v>
@@ -2238,30 +2255,30 @@
         <v>185</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
@@ -2279,31 +2296,31 @@
         <v>185</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1">
+      <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2311,7 +2328,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
         <v>107465</v>
@@ -2320,39 +2337,39 @@
         <v>185</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E18" s="2">
         <v>107466</v>
@@ -2361,30 +2378,30 @@
         <v>185</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
@@ -2402,30 +2419,30 @@
         <v>185</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
@@ -2443,30 +2460,30 @@
         <v>185</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>14</v>
@@ -2484,31 +2501,31 @@
         <v>185</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
@@ -2516,7 +2533,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2">
         <v>107469</v>
@@ -2525,30 +2542,30 @@
         <v>185</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>14</v>
@@ -2566,31 +2583,31 @@
         <v>185</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="2" customFormat="1">
+      <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
@@ -2598,7 +2615,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2">
         <v>107470</v>
@@ -2607,30 +2624,30 @@
         <v>185</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>14</v>
@@ -2648,31 +2665,31 @@
         <v>185</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2680,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2">
         <v>98579</v>
@@ -2689,31 +2706,31 @@
         <v>185</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="2" customFormat="1">
+      <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
@@ -2721,7 +2738,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2">
         <v>107471</v>
@@ -2730,30 +2747,30 @@
         <v>185</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>14</v>
@@ -2771,31 +2788,31 @@
         <v>185</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="2" customFormat="1">
+      <c r="A29" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
@@ -2803,7 +2820,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2">
         <v>98581</v>
@@ -2812,30 +2829,30 @@
         <v>185</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>14</v>
@@ -2853,16 +2870,16 @@
         <v>185</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K30" s="2">
         <v>100</v>
@@ -2871,12 +2888,12 @@
         <v>100</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="2" customFormat="1">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>14</v>
@@ -2885,7 +2902,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2">
         <v>82399</v>
@@ -2894,16 +2911,16 @@
         <v>185</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31" s="2">
         <v>100</v>
@@ -2912,12 +2929,12 @@
         <v>100</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>14</v>
@@ -2935,16 +2952,16 @@
         <v>185</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32" s="2">
         <v>100</v>
@@ -2953,12 +2970,12 @@
         <v>100</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>14</v>
@@ -2976,16 +2993,16 @@
         <v>185</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K33" s="2">
         <v>100</v>
@@ -2994,13 +3011,13 @@
         <v>100</v>
       </c>
       <c r="M33" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="2" customFormat="1">
+      <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
@@ -3008,7 +3025,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E34" s="2">
         <v>107473</v>
@@ -3017,30 +3034,30 @@
         <v>185</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>14</v>
@@ -3058,31 +3075,31 @@
         <v>185</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M35" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>96</v>
-      </c>
       <c r="B36" t="s">
         <v>14</v>
       </c>
@@ -3090,7 +3107,7 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36">
         <v>98583</v>
@@ -3099,30 +3116,30 @@
         <v>185</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -3131,7 +3148,7 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <v>98585</v>
@@ -3140,30 +3157,30 @@
         <v>185</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -3181,31 +3198,31 @@
         <v>185</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>106</v>
-      </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
@@ -3213,7 +3230,7 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39">
         <v>98587</v>
@@ -3222,30 +3239,30 @@
         <v>185</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -3263,31 +3280,31 @@
         <v>185</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>109</v>
-      </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
@@ -3295,7 +3312,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41">
         <v>98589</v>
@@ -3304,30 +3321,30 @@
         <v>185</v>
       </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -3345,31 +3362,31 @@
         <v>185</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>112</v>
-      </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
@@ -3377,7 +3394,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E43">
         <v>98591</v>
@@ -3386,30 +3403,30 @@
         <v>185</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -3418,7 +3435,7 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>107475</v>
@@ -3427,39 +3444,39 @@
         <v>185</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
         <v>23</v>
-      </c>
-      <c r="I44" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" t="s">
-        <v>26</v>
-      </c>
-      <c r="L44" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" t="s">
-        <v>21</v>
       </c>
       <c r="E45">
         <v>107476</v>
@@ -3468,30 +3485,30 @@
         <v>185</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K45" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -3509,31 +3526,31 @@
         <v>185</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>118</v>
-      </c>
       <c r="B47" t="s">
         <v>14</v>
       </c>
@@ -3541,7 +3558,7 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E47">
         <v>107477</v>
@@ -3550,30 +3567,30 @@
         <v>185</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -3591,31 +3608,31 @@
         <v>185</v>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>121</v>
-      </c>
       <c r="B49" t="s">
         <v>14</v>
       </c>
@@ -3623,7 +3640,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E49">
         <v>107478</v>
@@ -3632,30 +3649,30 @@
         <v>185</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M49" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -3673,31 +3690,31 @@
         <v>185</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>124</v>
-      </c>
       <c r="B51" t="s">
         <v>14</v>
       </c>
@@ -3705,7 +3722,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E51">
         <v>107479</v>
@@ -3714,30 +3731,30 @@
         <v>185</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I51" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J51" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -3755,31 +3772,31 @@
         <v>185</v>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>127</v>
-      </c>
       <c r="B53" t="s">
         <v>14</v>
       </c>
@@ -3787,7 +3804,7 @@
         <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <v>98601</v>
@@ -3796,30 +3813,30 @@
         <v>185</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -3828,7 +3845,7 @@
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E54">
         <v>107480</v>
@@ -3837,30 +3854,30 @@
         <v>185</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -3878,31 +3895,31 @@
         <v>185</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>131</v>
-      </c>
       <c r="B56" t="s">
         <v>14</v>
       </c>
@@ -3910,7 +3927,7 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E56">
         <v>98603</v>
@@ -3919,30 +3936,30 @@
         <v>185</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -3960,31 +3977,31 @@
         <v>185</v>
       </c>
       <c r="G57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>134</v>
-      </c>
       <c r="B58" t="s">
         <v>14</v>
       </c>
@@ -3992,7 +4009,7 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E58">
         <v>107481</v>
@@ -4001,30 +4018,30 @@
         <v>185</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I58" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J58" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K58" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -4042,31 +4059,31 @@
         <v>185</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>137</v>
-      </c>
       <c r="B60" t="s">
         <v>14</v>
       </c>
@@ -4074,7 +4091,7 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E60">
         <v>98608</v>
@@ -4083,30 +4100,30 @@
         <v>185</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -4115,7 +4132,7 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E61">
         <v>107482</v>
@@ -4124,39 +4141,39 @@
         <v>185</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
         <v>23</v>
-      </c>
-      <c r="I61" t="s">
-        <v>24</v>
-      </c>
-      <c r="J61" t="s">
-        <v>25</v>
-      </c>
-      <c r="K61" t="s">
-        <v>26</v>
-      </c>
-      <c r="L61" t="s">
-        <v>27</v>
-      </c>
-      <c r="M61" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" t="s">
-        <v>21</v>
       </c>
       <c r="E62">
         <v>107483</v>
@@ -4165,39 +4182,39 @@
         <v>185</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
         <v>23</v>
-      </c>
-      <c r="I62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J62" t="s">
-        <v>25</v>
-      </c>
-      <c r="K62" t="s">
-        <v>26</v>
-      </c>
-      <c r="L62" t="s">
-        <v>27</v>
-      </c>
-      <c r="M62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>144</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" t="s">
-        <v>21</v>
       </c>
       <c r="E63">
         <v>107484</v>
@@ -4206,39 +4223,39 @@
         <v>185</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
         <v>23</v>
-      </c>
-      <c r="I63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" t="s">
-        <v>25</v>
-      </c>
-      <c r="K63" t="s">
-        <v>26</v>
-      </c>
-      <c r="L63" t="s">
-        <v>27</v>
-      </c>
-      <c r="M63" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>146</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" t="s">
-        <v>21</v>
       </c>
       <c r="E64">
         <v>107408</v>
@@ -4247,39 +4264,39 @@
         <v>185</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
         <v>23</v>
-      </c>
-      <c r="I64" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" t="s">
-        <v>25</v>
-      </c>
-      <c r="K64" t="s">
-        <v>26</v>
-      </c>
-      <c r="L64" t="s">
-        <v>27</v>
-      </c>
-      <c r="M64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" t="s">
-        <v>21</v>
       </c>
       <c r="E65">
         <v>107409</v>
@@ -4288,30 +4305,30 @@
         <v>185</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M65" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -4329,30 +4346,30 @@
         <v>185</v>
       </c>
       <c r="G66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J66" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M66" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -4370,39 +4387,39 @@
         <v>185</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" t="s">
+        <v>28</v>
+      </c>
+      <c r="L67" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
         <v>23</v>
-      </c>
-      <c r="I67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" t="s">
-        <v>25</v>
-      </c>
-      <c r="K67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L67" t="s">
-        <v>27</v>
-      </c>
-      <c r="M67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" t="s">
-        <v>21</v>
       </c>
       <c r="E68">
         <v>107410</v>
@@ -4411,39 +4428,39 @@
         <v>185</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
         <v>23</v>
-      </c>
-      <c r="I68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" t="s">
-        <v>25</v>
-      </c>
-      <c r="K68" t="s">
-        <v>26</v>
-      </c>
-      <c r="L68" t="s">
-        <v>27</v>
-      </c>
-      <c r="M68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" t="s">
-        <v>21</v>
       </c>
       <c r="E69">
         <v>107411</v>
@@ -4452,30 +4469,30 @@
         <v>185</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J69" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K69" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M69" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -4493,39 +4510,39 @@
         <v>185</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L70" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
         <v>23</v>
-      </c>
-      <c r="I70" t="s">
-        <v>24</v>
-      </c>
-      <c r="J70" t="s">
-        <v>25</v>
-      </c>
-      <c r="K70" t="s">
-        <v>26</v>
-      </c>
-      <c r="L70" t="s">
-        <v>27</v>
-      </c>
-      <c r="M70" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" t="s">
-        <v>21</v>
       </c>
       <c r="E71">
         <v>107412</v>
@@ -4534,30 +4551,30 @@
         <v>185</v>
       </c>
       <c r="G71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I71" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J71" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K71" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M71" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -4575,30 +4592,30 @@
         <v>185</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I72" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J72" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -4616,30 +4633,30 @@
         <v>185</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I73" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J73" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K73" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M73" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -4657,39 +4674,39 @@
         <v>185</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
         <v>23</v>
-      </c>
-      <c r="I74" t="s">
-        <v>24</v>
-      </c>
-      <c r="J74" t="s">
-        <v>25</v>
-      </c>
-      <c r="K74" t="s">
-        <v>26</v>
-      </c>
-      <c r="L74" t="s">
-        <v>27</v>
-      </c>
-      <c r="M74" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>166</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" t="s">
-        <v>21</v>
       </c>
       <c r="E75">
         <v>107413</v>
@@ -4698,30 +4715,30 @@
         <v>185</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I75" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J75" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K75" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M75" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -4739,39 +4756,39 @@
         <v>185</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H76" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" t="s">
+        <v>29</v>
+      </c>
+      <c r="M76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
         <v>23</v>
-      </c>
-      <c r="I76" t="s">
-        <v>24</v>
-      </c>
-      <c r="J76" t="s">
-        <v>25</v>
-      </c>
-      <c r="K76" t="s">
-        <v>26</v>
-      </c>
-      <c r="L76" t="s">
-        <v>27</v>
-      </c>
-      <c r="M76" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" t="s">
-        <v>21</v>
       </c>
       <c r="E77">
         <v>107414</v>
@@ -4780,39 +4797,39 @@
         <v>185</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" t="s">
+        <v>29</v>
+      </c>
+      <c r="M77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
         <v>23</v>
-      </c>
-      <c r="I77" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77" t="s">
-        <v>25</v>
-      </c>
-      <c r="K77" t="s">
-        <v>26</v>
-      </c>
-      <c r="L77" t="s">
-        <v>27</v>
-      </c>
-      <c r="M77" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>171</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" t="s">
-        <v>21</v>
       </c>
       <c r="E78">
         <v>107415</v>
@@ -4821,39 +4838,39 @@
         <v>185</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78" t="s">
+        <v>29</v>
+      </c>
+      <c r="M78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
         <v>23</v>
-      </c>
-      <c r="I78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J78" t="s">
-        <v>25</v>
-      </c>
-      <c r="K78" t="s">
-        <v>26</v>
-      </c>
-      <c r="L78" t="s">
-        <v>27</v>
-      </c>
-      <c r="M78" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" t="s">
-        <v>21</v>
       </c>
       <c r="E79">
         <v>107416</v>
@@ -4862,30 +4879,30 @@
         <v>185</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I79" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M79" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
@@ -4903,39 +4920,39 @@
         <v>185</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" t="s">
+        <v>29</v>
+      </c>
+      <c r="M80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
         <v>23</v>
-      </c>
-      <c r="I80" t="s">
-        <v>24</v>
-      </c>
-      <c r="J80" t="s">
-        <v>25</v>
-      </c>
-      <c r="K80" t="s">
-        <v>26</v>
-      </c>
-      <c r="L80" t="s">
-        <v>27</v>
-      </c>
-      <c r="M80" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" t="s">
-        <v>21</v>
       </c>
       <c r="E81">
         <v>107417</v>
@@ -4944,30 +4961,30 @@
         <v>185</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I81" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J81" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K81" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M81" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
@@ -4985,39 +5002,39 @@
         <v>185</v>
       </c>
       <c r="G82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" t="s">
+        <v>28</v>
+      </c>
+      <c r="L82" t="s">
+        <v>29</v>
+      </c>
+      <c r="M82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
         <v>23</v>
-      </c>
-      <c r="I82" t="s">
-        <v>24</v>
-      </c>
-      <c r="J82" t="s">
-        <v>25</v>
-      </c>
-      <c r="K82" t="s">
-        <v>26</v>
-      </c>
-      <c r="L82" t="s">
-        <v>27</v>
-      </c>
-      <c r="M82" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" t="s">
-        <v>21</v>
       </c>
       <c r="E83">
         <v>107419</v>
@@ -5026,30 +5043,30 @@
         <v>185</v>
       </c>
       <c r="G83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I83" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J83" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
@@ -5067,39 +5084,39 @@
         <v>185</v>
       </c>
       <c r="G84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84" t="s">
+        <v>28</v>
+      </c>
+      <c r="L84" t="s">
+        <v>29</v>
+      </c>
+      <c r="M84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
         <v>23</v>
-      </c>
-      <c r="I84" t="s">
-        <v>24</v>
-      </c>
-      <c r="J84" t="s">
-        <v>25</v>
-      </c>
-      <c r="K84" t="s">
-        <v>26</v>
-      </c>
-      <c r="L84" t="s">
-        <v>27</v>
-      </c>
-      <c r="M84" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>181</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" t="s">
-        <v>21</v>
       </c>
       <c r="E85">
         <v>107420</v>
@@ -5108,30 +5125,30 @@
         <v>185</v>
       </c>
       <c r="G85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I85" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J85" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K85" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M85" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B86" t="s">
         <v>14</v>
@@ -5149,39 +5166,39 @@
         <v>185</v>
       </c>
       <c r="G86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" t="s">
+        <v>27</v>
+      </c>
+      <c r="K86" t="s">
+        <v>28</v>
+      </c>
+      <c r="L86" t="s">
+        <v>29</v>
+      </c>
+      <c r="M86" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
         <v>23</v>
-      </c>
-      <c r="I86" t="s">
-        <v>24</v>
-      </c>
-      <c r="J86" t="s">
-        <v>25</v>
-      </c>
-      <c r="K86" t="s">
-        <v>26</v>
-      </c>
-      <c r="L86" t="s">
-        <v>27</v>
-      </c>
-      <c r="M86" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>184</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" t="s">
-        <v>21</v>
       </c>
       <c r="E87">
         <v>107421</v>
@@ -5190,39 +5207,39 @@
         <v>185</v>
       </c>
       <c r="G87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" t="s">
+        <v>28</v>
+      </c>
+      <c r="L87" t="s">
+        <v>29</v>
+      </c>
+      <c r="M87" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
         <v>23</v>
-      </c>
-      <c r="I87" t="s">
-        <v>24</v>
-      </c>
-      <c r="J87" t="s">
-        <v>25</v>
-      </c>
-      <c r="K87" t="s">
-        <v>26</v>
-      </c>
-      <c r="L87" t="s">
-        <v>27</v>
-      </c>
-      <c r="M87" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>187</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" t="s">
-        <v>21</v>
       </c>
       <c r="E88">
         <v>107422</v>
@@ -5231,30 +5248,30 @@
         <v>185</v>
       </c>
       <c r="G88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H88" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I88" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J88" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K88" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M88" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
         <v>14</v>
@@ -5272,39 +5289,39 @@
         <v>185</v>
       </c>
       <c r="G89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" t="s">
+        <v>29</v>
+      </c>
+      <c r="M89" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
         <v>23</v>
-      </c>
-      <c r="I89" t="s">
-        <v>24</v>
-      </c>
-      <c r="J89" t="s">
-        <v>25</v>
-      </c>
-      <c r="K89" t="s">
-        <v>26</v>
-      </c>
-      <c r="L89" t="s">
-        <v>27</v>
-      </c>
-      <c r="M89" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>189</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" t="s">
-        <v>21</v>
       </c>
       <c r="E90">
         <v>107423</v>
@@ -5313,30 +5330,30 @@
         <v>185</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I90" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J90" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K90" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
@@ -5354,30 +5371,30 @@
         <v>185</v>
       </c>
       <c r="G91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I91" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J91" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K91" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M91" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
@@ -5395,39 +5412,39 @@
         <v>185</v>
       </c>
       <c r="G92" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H92" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92" t="s">
+        <v>26</v>
+      </c>
+      <c r="J92" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" t="s">
+        <v>28</v>
+      </c>
+      <c r="L92" t="s">
+        <v>29</v>
+      </c>
+      <c r="M92" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
         <v>23</v>
-      </c>
-      <c r="I92" t="s">
-        <v>24</v>
-      </c>
-      <c r="J92" t="s">
-        <v>25</v>
-      </c>
-      <c r="K92" t="s">
-        <v>26</v>
-      </c>
-      <c r="L92" t="s">
-        <v>27</v>
-      </c>
-      <c r="M92" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>194</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" t="s">
-        <v>21</v>
       </c>
       <c r="E93">
         <v>107424</v>
@@ -5436,28 +5453,28 @@
         <v>185</v>
       </c>
       <c r="G93" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H93" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I93" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J93" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K93" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M93" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -5468,7 +5485,7 @@
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E94">
         <v>53632</v>
@@ -5476,19 +5493,19 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -5499,7 +5516,7 @@
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E95">
         <v>55897</v>
@@ -5507,21 +5524,21 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -5538,21 +5555,21 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B97" t="s">
         <v>14</v>
@@ -5561,7 +5578,7 @@
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E97">
         <v>65847</v>
@@ -5569,21 +5586,21 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s">
         <v>14</v>
@@ -5592,7 +5609,7 @@
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E98">
         <v>65849</v>
@@ -5600,21 +5617,21 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B99" t="s">
         <v>14</v>
@@ -5623,7 +5640,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E99">
         <v>65851</v>
@@ -5631,21 +5648,21 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
@@ -5654,7 +5671,7 @@
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E100">
         <v>65853</v>
@@ -5662,21 +5679,21 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s">
         <v>14</v>
@@ -5685,7 +5702,7 @@
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E101">
         <v>65855</v>
@@ -5693,21 +5710,21 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="I101" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
@@ -5716,7 +5733,7 @@
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E102">
         <v>107463</v>
@@ -5724,21 +5741,21 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I102" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B103" t="s">
         <v>14</v>
@@ -5747,7 +5764,7 @@
         <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E103">
         <v>65857</v>
@@ -5755,21 +5772,21 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
         <v>14</v>
@@ -5778,7 +5795,7 @@
         <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E104">
         <v>65859</v>
@@ -5786,21 +5803,21 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
@@ -5809,7 +5826,7 @@
         <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E105">
         <v>65861</v>
@@ -5817,21 +5834,21 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B106" t="s">
         <v>14</v>
@@ -5848,21 +5865,21 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B107" t="s">
         <v>14</v>
@@ -5871,7 +5888,7 @@
         <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E107">
         <v>66893</v>
@@ -5879,21 +5896,21 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B108" t="s">
         <v>14</v>
@@ -5902,7 +5919,7 @@
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="E108">
         <v>66895</v>
@@ -5910,21 +5927,21 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B109" t="s">
         <v>14</v>
@@ -5933,7 +5950,7 @@
         <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E109">
         <v>107467</v>
@@ -5941,21 +5958,21 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I109" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B110" t="s">
         <v>14</v>
@@ -5964,7 +5981,7 @@
         <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E110">
         <v>66897</v>
@@ -5972,21 +5989,21 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B111" t="s">
         <v>14</v>
@@ -5995,7 +6012,7 @@
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E111">
         <v>107468</v>
@@ -6003,21 +6020,21 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I111" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B112" t="s">
         <v>14</v>
@@ -6026,7 +6043,7 @@
         <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E112">
         <v>66899</v>
@@ -6034,21 +6051,21 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B113" t="s">
         <v>14</v>
@@ -6065,21 +6082,21 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B114" t="s">
         <v>14</v>
@@ -6088,7 +6105,7 @@
         <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E114">
         <v>98577</v>
@@ -6096,21 +6113,21 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B115" t="s">
         <v>14</v>
@@ -6119,7 +6136,7 @@
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E115">
         <v>66901</v>
@@ -6127,21 +6144,21 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I115" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
         <v>14</v>
@@ -6150,7 +6167,7 @@
         <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E116">
         <v>82401</v>
@@ -6158,21 +6175,21 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B117" t="s">
         <v>14</v>
@@ -6181,7 +6198,7 @@
         <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E117">
         <v>107472</v>
@@ -6189,21 +6206,21 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I117" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B118" t="s">
         <v>14</v>
@@ -6220,21 +6237,21 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B119" t="s">
         <v>14</v>
@@ -6243,7 +6260,7 @@
         <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E119">
         <v>107474</v>
@@ -6251,21 +6268,21 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I119" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
         <v>14</v>
@@ -6282,21 +6299,21 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
         <v>14</v>
@@ -6305,7 +6322,7 @@
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E121">
         <v>98593</v>
@@ -6313,21 +6330,21 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="I121" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
         <v>14</v>
@@ -6336,7 +6353,7 @@
         <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E122">
         <v>98595</v>
@@ -6344,21 +6361,21 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="I122" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>14</v>
@@ -6367,7 +6384,7 @@
         <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E123">
         <v>98597</v>
@@ -6375,21 +6392,21 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="I123" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124" t="s">
         <v>14</v>
@@ -6398,7 +6415,7 @@
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E124">
         <v>98599</v>
@@ -6406,21 +6423,21 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>199</v>
       </c>
       <c r="B125" t="s">
         <v>14</v>
@@ -6437,10 +6454,10 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -6449,9 +6466,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
         <v>14</v>
@@ -6460,7 +6477,7 @@
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E126">
         <v>98606</v>
@@ -6468,10 +6485,10 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -6480,9 +6497,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
         <v>14</v>
@@ -6499,22 +6516,22 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>200</v>
-      </c>
       <c r="B128" t="s">
         <v>14</v>
       </c>
@@ -6522,7 +6539,7 @@
         <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E128">
         <v>98610</v>
@@ -6530,21 +6547,21 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B129" t="s">
         <v>14</v>
@@ -6561,21 +6578,21 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I129" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B130" t="s">
         <v>14</v>
@@ -6592,21 +6609,21 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I130" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
         <v>14</v>
@@ -6615,7 +6632,7 @@
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E131">
         <v>107445</v>
@@ -6623,21 +6640,21 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I131" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B132" t="s">
         <v>14</v>
@@ -6654,21 +6671,21 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I132" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="B133" t="s">
         <v>14</v>
@@ -6677,7 +6694,7 @@
         <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E133">
         <v>107446</v>
@@ -6685,21 +6702,21 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I133" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s">
         <v>14</v>
@@ -6708,7 +6725,7 @@
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E134">
         <v>107447</v>
@@ -6716,21 +6733,21 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I134" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B135" t="s">
         <v>14</v>
@@ -6739,7 +6756,7 @@
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E135">
         <v>107448</v>
@@ -6747,21 +6764,21 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B136" t="s">
         <v>14</v>
@@ -6770,7 +6787,7 @@
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E136">
         <v>107449</v>
@@ -6778,21 +6795,21 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B137" t="s">
         <v>14</v>
@@ -6801,7 +6818,7 @@
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E137">
         <v>107450</v>
@@ -6809,21 +6826,21 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I137" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="B138" t="s">
         <v>14</v>
@@ -6840,21 +6857,21 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I138" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="B139" t="s">
         <v>14</v>
@@ -6871,21 +6888,21 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I139" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
         <v>14</v>
@@ -6894,7 +6911,7 @@
         <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E140">
         <v>107452</v>
@@ -6902,21 +6919,21 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I140" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="B141" t="s">
         <v>14</v>
@@ -6925,7 +6942,7 @@
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E141">
         <v>107418</v>
@@ -6933,21 +6950,21 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I141" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="B142" t="s">
         <v>14</v>
@@ -6964,21 +6981,21 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I142" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="B143" t="s">
         <v>14</v>
@@ -6987,7 +7004,7 @@
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E143">
         <v>107453</v>
@@ -6995,21 +7012,21 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I143" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B144" t="s">
         <v>14</v>
@@ -7018,7 +7035,7 @@
         <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E144">
         <v>107454</v>
@@ -7026,21 +7043,21 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I144" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B145" t="s">
         <v>14</v>
@@ -7049,7 +7066,7 @@
         <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E145">
         <v>107455</v>
@@ -7057,21 +7074,21 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I145" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B146" t="s">
         <v>14</v>
@@ -7088,21 +7105,21 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I146" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B147" t="s">
         <v>14</v>
@@ -7111,7 +7128,7 @@
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E147">
         <v>107456</v>
@@ -7119,16 +7136,16 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I147" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
